--- a/Results/Decision Tree Study/Feature Importance/feature importance.xlsx
+++ b/Results/Decision Tree Study/Feature Importance/feature importance.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Tese Github\master-thesis-iposcore\Results\Decision Tree Study\Feature Importance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D43801-5395-483D-9AE9-DE4C547A666D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D944B-451A-491A-A1BC-9B94C59397E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9183C4EA-802E-4B53-8DB5-3AAF1AA6DE4E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{9183C4EA-802E-4B53-8DB5-3AAF1AA6DE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$117:$F$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$117:$F$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>Discharge to Nursing or Rehab Facility (%)</t>
   </si>
@@ -72,40 +72,16 @@
     <t>Readmission (%)</t>
   </si>
   <si>
-    <t>Average Risk</t>
-  </si>
-  <si>
-    <t>Average Risk.13</t>
-  </si>
-  <si>
-    <t>Average Risk.11</t>
-  </si>
-  <si>
-    <t>Average Risk.10</t>
-  </si>
-  <si>
-    <t>Average Risk.12</t>
-  </si>
-  <si>
-    <t>Average Risk.4</t>
-  </si>
-  <si>
     <t>ARISCAT Total Score</t>
   </si>
   <si>
     <t>Serious Complicatios (%)</t>
   </si>
   <si>
-    <t>Kidney Failure (%)</t>
-  </si>
-  <si>
     <t>Reoperation (%)</t>
   </si>
   <si>
     <t>Venous Thromboembolism (%)</t>
-  </si>
-  <si>
-    <t>Average Risk.1</t>
   </si>
   <si>
     <t>ACS - Internment Days Prediction</t>
@@ -120,13 +96,7 @@
     <t>Any Complication (%)</t>
   </si>
   <si>
-    <t>Cardiac Complications (%)</t>
-  </si>
-  <si>
     <t>Pneumonia (%)</t>
-  </si>
-  <si>
-    <t>% Morbility P-Possum</t>
   </si>
   <si>
     <t>Surgical Gravity P-Possum Score</t>
@@ -136,15 +106,6 @@
   </si>
   <si>
     <t>ARISCAT Emerging Procedure</t>
-  </si>
-  <si>
-    <t>Average Risk.7</t>
-  </si>
-  <si>
-    <t>Average Risk.2</t>
-  </si>
-  <si>
-    <t>Average Risk.3</t>
   </si>
   <si>
     <t>Urinary Tract Infection (%)</t>
@@ -160,9 +121,6 @@
   </si>
   <si>
     <t>Physiological Score P-Possum</t>
-  </si>
-  <si>
-    <t>Kidney Failure(%)</t>
   </si>
   <si>
     <t>PP Peritoneal Contamination_3.0</t>
@@ -214,6 +172,51 @@
   </si>
   <si>
     <t>PP N. of Procedures_2.0</t>
+  </si>
+  <si>
+    <t>% Morbidity P-Possum</t>
+  </si>
+  <si>
+    <t>Renal Failure (%)</t>
+  </si>
+  <si>
+    <t>Renal Failure(%)</t>
+  </si>
+  <si>
+    <t>Heart Complications (%)</t>
+  </si>
+  <si>
+    <t>Serious Complications Average Risk</t>
+  </si>
+  <si>
+    <t>Heart Complications Average Risk</t>
+  </si>
+  <si>
+    <t>Discharge to Nursing or Rehab Facility Average Risk</t>
+  </si>
+  <si>
+    <t>Reoperation Average Risk</t>
+  </si>
+  <si>
+    <t>Readmission Average Risk</t>
+  </si>
+  <si>
+    <t>Death Average Risk</t>
+  </si>
+  <si>
+    <t>Surgical Infection Average Risk</t>
+  </si>
+  <si>
+    <t>Any Complication Average Risk</t>
+  </si>
+  <si>
+    <t>Renal Failure Average Risk</t>
+  </si>
+  <si>
+    <t>Pneumonia Average Risk</t>
+  </si>
+  <si>
+    <t>ACS Systemic Sepsis_3.0</t>
   </si>
 </sst>
 </file>
@@ -292,10 +295,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -324,10 +324,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -376,76 +373,76 @@
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Urinary Tract Infection (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Readmission Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Surgical Gravity P-Possum Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Surgical Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average Risk.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Renal Failure (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>% Morbidity P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Death (%)</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Serious Complicatios (%)</c:v>
@@ -520,16 +517,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>5.1343649908837198E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6.0779930596408502E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.1343649908837198E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.88787641949475404</c:v>
@@ -574,76 +571,76 @@
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Urinary Tract Infection (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Readmission Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Surgical Gravity P-Possum Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Surgical Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average Risk.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Renal Failure (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>% Morbidity P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Death (%)</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Serious Complicatios (%)</c:v>
@@ -684,53 +681,47 @@
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.0565297108627999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2411283620759901E-2</c:v>
+                  <c:v>4.1447407189805101E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>8.55259281019481E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3107667640636699E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6278696434415098E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.1716603819444101E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7588882054033199E-2</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8220502901353902E-2</c:v>
+                  <c:v>4.2567338641368697E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4007179928584705E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>9.8826393520040703E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13759933316409301</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.05</c:v>
+                  <c:v>0.13533059810200501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6150762528408902E-2</c:v>
+                  <c:v>5.9602704987320301E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18843803916966601</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11758871637924</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,76 +763,76 @@
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Urinary Tract Infection (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Readmission Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Surgical Gravity P-Possum Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Surgical Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Average Risk.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Renal Failure (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>% Morbidity P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Death (%)</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Serious Complicatios (%)</c:v>
@@ -859,73 +850,73 @@
                   <c:v>1.4180422000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4803429999999999E-3</c:v>
+                  <c:v>2.5639206000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5639206000000001E-3</c:v>
+                  <c:v>8.4880300000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4880300000000006E-3</c:v>
+                  <c:v>1.2256497E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.335067E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6847381000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8556748000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2091381E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3625515E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8262886999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.0237281000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2256497E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.335067E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6847381000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8556748000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2091381E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3625515E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.2964254E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8262886999999998E-2</c:v>
+                  <c:v>2.4803429999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4.2252365E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5259581999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8558774999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2.3397904000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8558774999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>3.5615729999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2252365E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3.2419099999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
+                  <c:v>3.2850740000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5.2889264000000004E-3</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5259581999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.8236893999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>8.4988326000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2850740000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.44798860000000001</c:v>
@@ -990,10 +981,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1053,10 +1041,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1095,10 +1080,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1140,7 +1122,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1176,10 +1162,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1208,10 +1191,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1260,88 +1240,88 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>ARISCAT Emerging Procedure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Kidney Failure (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Death Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Average Risk.7</c:v>
+                  <c:v>Renal Failure Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average Risk</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Any Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>ARISCAT Total Score</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>Serious Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Serious Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>ACS - Internment Days Prediction</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1388,18 +1368,12 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,19 +1396,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8421073852600101E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4.7595426095530503E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.407798434116803</c:v>
+                  <c:v>0.43282214005895098</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.52378049203059596</c:v>
+                  <c:v>0.51958243384551805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,88 +1444,88 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>ARISCAT Emerging Procedure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Kidney Failure (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Death Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Average Risk.7</c:v>
+                  <c:v>Renal Failure Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average Risk</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Any Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>ARISCAT Total Score</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>Serious Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Serious Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>ACS - Internment Days Prediction</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1569,88 +1537,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1.13696233424654E-2</c:v>
+                  <c:v>4.3400304141871598E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.173787509444E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1077246981121897E-3</c:v>
+                  <c:v>2.7540870180659299E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6523128929319598E-2</c:v>
+                  <c:v>8.1813828165957694E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0049203000926404E-3</c:v>
+                  <c:v>2.4688272181994701E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1011941507900099E-2</c:v>
+                  <c:v>1.0812392951361801E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.11442148264901E-2</c:v>
+                  <c:v>1.1424913264159699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.31193258588091E-2</c:v>
+                  <c:v>1.7193662329520101E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.29221142991223E-2</c:v>
+                  <c:v>2.3893738493800901E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3063101032733301E-2</c:v>
+                  <c:v>2.9310389791227399E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2547371958211E-2</c:v>
+                  <c:v>3.1130716980462901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6163313074257901E-2</c:v>
+                  <c:v>1.8837042159649799E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3256993772153902E-2</c:v>
+                  <c:v>1.69605876624126E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.55078814790524E-2</c:v>
+                  <c:v>3.6717778988146398E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3696807414671898E-2</c:v>
+                  <c:v>3.2469241471168697E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9134774253264802E-2</c:v>
+                  <c:v>1.4502684817016E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5713174110597702E-2</c:v>
+                  <c:v>4.77958776607064E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7288371675249606E-2</c:v>
+                  <c:v>3.6414235831236097E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3685909595841998E-2</c:v>
+                  <c:v>4.44211741563348E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6043362993757798E-2</c:v>
+                  <c:v>6.36716882586571E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.25561184790257E-2</c:v>
+                  <c:v>4.5681519885236999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.4157968981606403E-2</c:v>
+                  <c:v>5.9660822759623401E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6847451155360602E-2</c:v>
+                  <c:v>7.4029179285588803E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4361427788048799E-2</c:v>
+                  <c:v>6.3978546857598503E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2490359143049206E-2</c:v>
+                  <c:v>9.3719241478471396E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.1238496793522805E-2</c:v>
+                  <c:v>0.111278941534251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2430627517228901E-2</c:v>
+                  <c:v>2.26383346085419E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.36134950200529E-2</c:v>
+                  <c:v>5.2225756207306497E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,88 +1660,88 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>ARISCAT Emerging Procedure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Average Risk.1</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Kidney Failure (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Physiological P-Possum Score</c:v>
+                  <c:v>Death Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Average Risk.7</c:v>
+                  <c:v>Renal Failure Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Average Risk</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Average Risk.11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Any Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>% Morbility P-Possum</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>ARISCAT Total Score</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>Serious Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Serious Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
+                  <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>ACS - Internment Days Prediction</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1785,88 +1753,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>1.9896574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9185615999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.6541997000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9896574E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9185615999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.4241072999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.8689292E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4241072999999997E-2</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.3789489999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4757773999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3.3810075000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4672486E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3789489999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4757773999999998E-2</c:v>
+                  <c:v>3.1104476999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.7828499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1104476999999998E-2</c:v>
+                  <c:v>2.8907849999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.4104352999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8907849999999999E-2</c:v>
+                  <c:v>2.6436050999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2.8969293E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3.6637217E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8969293E-2</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3189984000000001E-2</c:v>
+                  <c:v>3.4415319999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.1787577999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4339583000000001E-2</c:v>
+                  <c:v>4.3189984000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4.1190600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.4339583000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8471075000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4.2737518000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>4.9658663999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1605679999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8798079999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1907759999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4672486E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5.2326023999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9658663999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8471075000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.4415319999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.1907759999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.8798079999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.1605679999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.6436050999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,10 +1896,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1991,10 +1956,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2033,10 +1995,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2078,7 +2037,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2114,10 +2077,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2146,10 +2106,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2198,37 +2155,37 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renal Failure(%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Physiological Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation (%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kidney Failure(%)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Venous Thromboembolism (%)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Physiological Score P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Reoperation (%)</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>Serious Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Serious Complications (%)</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
@@ -2255,36 +2212,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.4150903089348803E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5276716657515902E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.94276197468647E-3</c:v>
+                  <c:v>2.3325187281549899E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.26999951925835E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3325187281549899E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26999951925835E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.70721246851118E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1.63895020766728E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>8.6360974897754697E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2342,37 +2287,37 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renal Failure(%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Physiological Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation (%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kidney Failure(%)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Venous Thromboembolism (%)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Physiological Score P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Reoperation (%)</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>Serious Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Serious Complications (%)</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
@@ -2399,52 +2344,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.0689694143631698E-2</c:v>
+                  <c:v>3.4821917921220802E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0797706296934202E-2</c:v>
+                  <c:v>4.8385341327048401E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0046634036495601E-2</c:v>
+                  <c:v>2.93681564835192E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3989620800187201E-2</c:v>
+                  <c:v>4.2735673464106699E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1900384626099697E-2</c:v>
+                  <c:v>5.9821479939401602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1956943949913502E-2</c:v>
+                  <c:v>2.2147553812215701E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1911882017069498E-2</c:v>
+                  <c:v>2.4006370417154199E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1686426146887003E-2</c:v>
+                  <c:v>3.3307748366787501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5868476641652299E-2</c:v>
+                  <c:v>4.91557288725872E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5736175793811705E-2</c:v>
+                  <c:v>3.9533482294122999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5824050517933498E-2</c:v>
+                  <c:v>5.39667956902442E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6078532027777903E-2</c:v>
+                  <c:v>4.7769490347469502E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.109684582051393</c:v>
+                  <c:v>0.109199517304998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9411623580141598E-2</c:v>
+                  <c:v>6.2395651458898402E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13148959658147799</c:v>
+                  <c:v>0.148849857241133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21292767078859101</c:v>
+                  <c:v>0.19453523505909101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,37 +2431,37 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renal Failure(%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Physiological Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation (%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Urinary Tract Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kidney Failure(%)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Venous Thromboembolism (%)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Physiological Score P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Reoperation (%)</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>Serious Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Serious Complications (%)</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Readmission (%)</c:v>
@@ -2543,37 +2488,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.7232797999999998E-2</c:v>
+                  <c:v>2.8799003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8806577000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8799003E-2</c:v>
+                  <c:v>2.7119913999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.1655585000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46083E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7232797999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.4872509999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7119913999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.46083E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1655585000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>6.2229517999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.6036117000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2229517999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>2.2550968000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.6280228E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2550968000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.9222839999999994E-2</c:v>
@@ -2650,10 +2595,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2713,10 +2655,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2755,10 +2694,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2800,7 +2736,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2836,10 +2776,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2848,7 +2785,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Feature Importance - Severity (Regression )</a:t>
+              <a:t>Feature Importance - Severity (Regression)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2868,10 +2805,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2923,82 +2857,82 @@
                   <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Urinary Tract Infection (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Renal Failure Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Serious Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Average Risk</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Average Risk.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Average Risk.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>ARISCAT Total Score</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Any Complication (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
@@ -3012,26 +2946,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="16">
-                  <c:v>2.7272727272727199E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.1818181818181804E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2727272727272904E-2</c:v>
+                <c:pt idx="17">
+                  <c:v>5.0000000000000301E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9999999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.109090909090909</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.0909090909090898E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.109090909090909</c:v>
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50909090909090804</c:v>
+                  <c:v>0.64999999999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,82 +3004,82 @@
                   <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Urinary Tract Infection (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Renal Failure Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Serious Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Average Risk</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Average Risk.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Average Risk.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>ARISCAT Total Score</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Any Complication (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
@@ -3166,88 +3094,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>6.06925936341993E-3</c:v>
+                  <c:v>1.2424978486303501E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4366448417081298E-3</c:v>
+                  <c:v>2.16658633269992E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9448474966467199E-3</c:v>
+                  <c:v>1.1342755815405101E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.12315643893692E-2</c:v>
+                  <c:v>1.39199049772183E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2580327438033501E-2</c:v>
+                  <c:v>4.6943393908018298E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.54238854082122E-2</c:v>
+                  <c:v>5.8211198009536997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4414089803762299E-2</c:v>
+                  <c:v>1.4042615888174599E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0099137605633401E-2</c:v>
+                  <c:v>1.448410396974E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2761553025644504E-3</c:v>
+                  <c:v>4.6873740947423401E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.74809381976695E-2</c:v>
+                  <c:v>1.2693870437876901E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4387430947413401E-2</c:v>
+                  <c:v>2.4734150826782198E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5872456938852898E-2</c:v>
+                  <c:v>4.0027799433854398E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6904664463147701E-2</c:v>
+                  <c:v>1.0255046556804001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9225742351025302E-3</c:v>
+                  <c:v>2.0439234551502199E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.11485560840263E-2</c:v>
+                  <c:v>2.1922481832672501E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0781156422844601E-2</c:v>
+                  <c:v>1.22620204036829E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2755427121325802E-2</c:v>
+                  <c:v>3.2122318264870102E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1400655448717398E-2</c:v>
+                  <c:v>8.9504586120057704E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3590027875762101E-2</c:v>
+                  <c:v>4.049802453391E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8079749572945202E-3</c:v>
+                  <c:v>6.21102908868707E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2061569677738798E-2</c:v>
+                  <c:v>7.9152944232865202E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.04910270756402E-2</c:v>
+                  <c:v>4.6896680515541397E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1990307226376103E-2</c:v>
+                  <c:v>3.8998083367575001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2212408438122403E-2</c:v>
+                  <c:v>8.7812659557699402E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.88381382979273E-2</c:v>
+                  <c:v>9.2925133352523698E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25714198191408899</c:v>
+                  <c:v>2.9699363078897902E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3165635659468397E-2</c:v>
+                  <c:v>0.30529369274774498</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.15711573691301E-2</c:v>
+                  <c:v>7.9077232848534205E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,82 +3220,82 @@
                   <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Heart Complications (%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Urinary Tract Infection (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Renal Failure Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Venous Thromboembolism (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Any Complication Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Death Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Serious Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Physiological P-Possum Score</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Urinary Tract Infection (%)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cardiac Complications (%)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Venous Thromboembolism (%)</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Readmission (%)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>% Mortality P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Death (%)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARISCAT Total Score</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Surgical Infection (%)</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Average Risk.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>% Mortality P-Possum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Death (%)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Average Risk</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Readmission (%)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Average Risk.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Average Risk.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>% Morbility P-Possum</c:v>
+                  <c:v>% Morbidity P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Surgical Infection Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>ARISCAT Total Score</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Pneumonia (%)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Any Complication (%)</c:v>
+                  <c:v>ARISCAT Preoperative Anemia</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Surgical Gravity Score P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>ACS - Internment Days Prediction</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>ARISCAT Emerging Procedure</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Discharge to Nursing or Rehab Facility (%)</c:v>
@@ -3382,88 +3310,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7.3042699999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1768284999999998E-2</c:v>
+                  <c:v>1.6131400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.327212E-2</c:v>
+                  <c:v>1.0481473999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9657819E-2</c:v>
+                  <c:v>1.441839E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1830598E-2</c:v>
+                  <c:v>2.3687710000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0986399999999999E-2</c:v>
+                  <c:v>2.268906E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3196515000000001E-2</c:v>
+                  <c:v>1.4702585000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8574403999999999E-2</c:v>
+                  <c:v>1.590743E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3744077999999997E-2</c:v>
+                  <c:v>2.6861738E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4665741000000001E-2</c:v>
+                  <c:v>1.9227475000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5498630000000004E-3</c:v>
+                  <c:v>3.1993042999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8667198000000001E-2</c:v>
+                  <c:v>3.1195804000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8963659999999999E-2</c:v>
+                  <c:v>2.7315885000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9859165000000002E-2</c:v>
+                  <c:v>2.7759296999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0919002000000003E-2</c:v>
+                  <c:v>2.9850056E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.753743E-2</c:v>
+                  <c:v>4.4020638000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5589669999999997E-2</c:v>
+                  <c:v>2.7311354999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9954973999999999E-2</c:v>
+                  <c:v>3.3963010000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0215296E-2</c:v>
+                  <c:v>3.819724E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8677775999999999E-2</c:v>
+                  <c:v>2.0025508000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5951265999999998E-2</c:v>
+                  <c:v>2.4397759000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2878075000000001E-2</c:v>
+                  <c:v>6.1539759999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9849464000000001E-2</c:v>
+                  <c:v>4.1953940000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8084519999999997E-2</c:v>
+                  <c:v>3.3461478000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7623459999999999E-2</c:v>
+                  <c:v>9.6925600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9797190999999999E-2</c:v>
+                  <c:v>0.20628895999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.24428841000000001</c:v>
+                  <c:v>3.2750416999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6593271999999999E-2</c:v>
+                  <c:v>2.6942968000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3525,10 +3453,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3588,10 +3513,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3630,10 +3552,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3675,7 +3594,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3711,10 +3634,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3722,7 +3642,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Feature Importance - Days in the ICU</a:t>
             </a:r>
           </a:p>
@@ -3743,10 +3667,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3791,71 +3712,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$118:$A$154</c:f>
+              <c:f>Sheet1!$A$118:$A$155</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>PP Peritoneal Contamination_3.0</c:v>
+                  <c:v>ACS Systemic Sepsis_3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ARISCAT Surgery Duration_16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ACS Systemic Sepsis_1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PP Leukocytes_2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>PP N. of Procedures_2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PP Leukocytes_1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PP N. of Procedures_1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>ACS Systemic Sepsis_1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS Ventilator Dependence</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>PP N. of Procedures_2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PP Leukocytes_1.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>PP Peritoneal Contamination_1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                  <c:v>PP Leukocytes_3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>PP Peritoneal Contamination_1.0</c:v>
+                  <c:v>PP Peritoneal Contamination_2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Death (%)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>PP Leukocytes_3.0</c:v>
+                  <c:v>PP Peritoneal Contamination_3.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>PP Peritoneal Contamination_2.0</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>PP N. of Procedures_3.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Cardiac Complications (%)</c:v>
+                  <c:v>Venous Thomboembolism (%)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Venous Thomboembolism (%)</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>% Mortality P-Possum</c:v>
+                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
+                  <c:v>Surgical Infection Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>ARISCAT Surgery Duration_0.0</c:v>
@@ -3867,58 +3788,58 @@
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>PP Peritoneal Contamination_4.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>PP Peritoneal Contamination_4.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Pneumonia Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>Average Risk.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>Average Risk.3</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Heart Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$118:$B$154</c:f>
+              <c:f>Sheet1!$B$118:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="3" formatCode="0.00E+00">
+                <c:ptCount val="38"/>
+                <c:pt idx="6" formatCode="0.00E+00">
                   <c:v>1.2312298315025001E-16</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>-1.84684474725375E-16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.7182464044360903E-3</c:v>
@@ -3926,34 +3847,34 @@
                 <c:pt idx="15">
                   <c:v>3.7081961531795701E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>7.1911280540634497E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6092531623634997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.2280367354011097E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.1911280540634497E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.6092531623634997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5.1810778028070902E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>6.2034309478426003E-2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>3.3962918038469403E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>4.2626927742158698E-2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>0.12840062380869799</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.156472015248656</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.38632819268757901</c:v>
                 </c:pt>
               </c:numCache>
@@ -3992,71 +3913,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$118:$A$154</c:f>
+              <c:f>Sheet1!$A$118:$A$155</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>PP Peritoneal Contamination_3.0</c:v>
+                  <c:v>ACS Systemic Sepsis_3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ARISCAT Surgery Duration_16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ACS Systemic Sepsis_1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PP Leukocytes_2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>PP N. of Procedures_2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PP Leukocytes_1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PP N. of Procedures_1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>ACS Systemic Sepsis_1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS Ventilator Dependence</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>PP N. of Procedures_2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PP Leukocytes_1.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>PP Peritoneal Contamination_1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                  <c:v>PP Leukocytes_3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>PP Peritoneal Contamination_1.0</c:v>
+                  <c:v>PP Peritoneal Contamination_2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Death (%)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>PP Leukocytes_3.0</c:v>
+                  <c:v>PP Peritoneal Contamination_3.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>PP Peritoneal Contamination_2.0</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>PP N. of Procedures_3.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Cardiac Complications (%)</c:v>
+                  <c:v>Venous Thomboembolism (%)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Venous Thomboembolism (%)</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>% Mortality P-Possum</c:v>
+                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
+                  <c:v>Surgical Infection Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>ARISCAT Surgery Duration_0.0</c:v>
@@ -4068,163 +3989,169 @@
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>PP Peritoneal Contamination_4.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>PP Peritoneal Contamination_4.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Pneumonia Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>Average Risk.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>Average Risk.3</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Heart Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$118:$C$154</c:f>
+              <c:f>Sheet1!$C$118:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.8901499260042999E-4</c:v>
+                  <c:v>5.9695053100722502E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4485165368598599E-3</c:v>
+                  <c:v>8.5858548778428804E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3092349133068402E-3</c:v>
+                  <c:v>3.9036999447776399E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.68868077005874E-3</c:v>
+                  <c:v>4.1368895131442497E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4295232718015503E-3</c:v>
+                  <c:v>7.5907724794517101E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4959527562301698E-3</c:v>
+                  <c:v>3.1671160695912002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5060294066579894E-3</c:v>
+                  <c:v>3.8180315291195398E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.45047222569949E-2</c:v>
+                  <c:v>3.49019991512857E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5235727630882801E-3</c:v>
+                  <c:v>1.1212141839859101E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7435744920963499E-2</c:v>
+                  <c:v>2.52953747070544E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7570383547467202E-3</c:v>
+                  <c:v>3.1823164260444698E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.47517775827567E-2</c:v>
+                  <c:v>4.9278074759604197E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4786822605444099E-2</c:v>
+                  <c:v>1.7610541966037601E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3080131139197602E-3</c:v>
+                  <c:v>3.9552887530729802E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5456910751808999E-3</c:v>
+                  <c:v>1.57219181441536E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9191497380332494E-3</c:v>
+                  <c:v>6.4649208488611002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.66656713186564E-2</c:v>
+                  <c:v>1.8275515379902001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.54212798323023E-2</c:v>
+                  <c:v>1.7766736478698801E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0022771981975301E-2</c:v>
+                  <c:v>1.75283807653723E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9751347529025501E-2</c:v>
+                  <c:v>2.86230295708448E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8835917558361101E-3</c:v>
+                  <c:v>2.6725954819771799E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4759085302236299E-3</c:v>
+                  <c:v>2.01643618980234E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7189621237359901E-2</c:v>
+                  <c:v>2.3804744569701899E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.47630429209145E-2</c:v>
+                  <c:v>2.2831482630508802E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6226301536354399E-2</c:v>
+                  <c:v>3.0798795967300601E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2191267408930399E-2</c:v>
+                  <c:v>3.1595941082817297E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4895641926662E-2</c:v>
+                  <c:v>1.5295158620873999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.83373445114905E-2</c:v>
+                  <c:v>3.2375253567245799E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.73384352629396E-2</c:v>
+                  <c:v>2.1141589608389601E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8133950376573606E-3</c:v>
+                  <c:v>1.84605278824767E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1161369578839399E-2</c:v>
+                  <c:v>3.8128371486133197E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.3818713694958603E-2</c:v>
+                  <c:v>7.1709341685266603E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.6115460398344206E-2</c:v>
+                  <c:v>9.8303901820036999E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.136419750877495</c:v>
+                  <c:v>0.12348080100566899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3183326963026605E-2</c:v>
+                  <c:v>5.4799805457207397E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.18357137550584299</c:v>
+                  <c:v>8.2790246161004902E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3954897132519403E-2</c:v>
+                  <c:v>0.183630807497693</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1778620251791299E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,71 +4189,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$118:$A$154</c:f>
+              <c:f>Sheet1!$A$118:$A$155</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>PP Peritoneal Contamination_3.0</c:v>
+                  <c:v>ACS Systemic Sepsis_3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ARISCAT Surgery Duration_16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ACS Systemic Sepsis_1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PP Leukocytes_2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>PP N. of Procedures_2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PP Leukocytes_1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PP N. of Procedures_1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>ACS Systemic Sepsis_1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ACS Ventilator Dependence</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>PP N. of Procedures_2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Average Risk.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PP Leukocytes_1.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>SCORE ARISCAT</c:v>
+                  <c:v>PP Peritoneal Contamination_1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ARISCAT Surgery Duration_13.0</c:v>
+                  <c:v>PP Leukocytes_3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>PP Peritoneal Contamination_1.0</c:v>
+                  <c:v>PP Peritoneal Contamination_2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Death (%)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>PP Leukocytes_3.0</c:v>
+                  <c:v>PP Peritoneal Contamination_3.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>PP Peritoneal Contamination_2.0</c:v>
+                  <c:v>Any Complication Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>PP N. of Procedures_3.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Average Risk.4</c:v>
+                  <c:v>SCORE ARISCAT</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Cardiac Complications (%)</c:v>
+                  <c:v>Venous Thomboembolism (%)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Venous Thomboembolism (%)</c:v>
+                  <c:v>Heart Complications (%)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>% Mortality P-Possum</c:v>
+                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>ARISCAT Surgery Duration_23.0</c:v>
+                  <c:v>Surgical Infection Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>ARISCAT Surgery Duration_0.0</c:v>
@@ -4338,157 +4265,148 @@
                   <c:v>Pneumonia (%)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Average Risk.13</c:v>
+                  <c:v>% Mortality P-Possum</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Average Risk.11</c:v>
+                  <c:v>Discharge to Nursing or Rehab Facility Average Risk</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>Any Complication (%)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Reoperation Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Serious Complications (%)</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>Kidney Failure (%)</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Any Complication (%)</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>PP Peritoneal Contamination_4.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>Surgical Gravity Score P-Possum</c:v>
+                  <c:v>Renal Failure (%)</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>ACS - Internment Days Prediction</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>PP Peritoneal Contamination_4.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Pneumonia Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>ARISCAT Total Score</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>Average Risk.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Reoperation (%)</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>Average Risk.3</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>Average Risk</c:v>
+                  <c:v>Heart Complications Average Risk</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Serious Complications Average Risk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$118:$D$154</c:f>
+              <c:f>Sheet1!$D$118:$D$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
+                <c:ptCount val="38"/>
+                <c:pt idx="5">
+                  <c:v>1.2168365E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0565199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5122203000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2372925999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7463672999999999E-2</c:v>
+                  <c:v>2.2231467000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.0629046000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6628127999999999E-2</c:v>
+                  <c:v>1.5843663000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2045787000000001E-2</c:v>
+                  <c:v>3.2151411999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1255663000000001E-2</c:v>
+                  <c:v>1.814315E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7907199999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1536676E-3</c:v>
+                  <c:v>9.2965870000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7782821999999999E-2</c:v>
+                  <c:v>4.0356049999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.554064E-2</c:v>
+                  <c:v>2.6248235000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0965166E-2</c:v>
+                  <c:v>2.7274030000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0052599999999999E-2</c:v>
+                  <c:v>7.276813E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7151851000000001E-2</c:v>
+                  <c:v>2.6873173E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6748032999999999E-2</c:v>
+                  <c:v>3.1112483E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3971372999999999E-2</c:v>
+                  <c:v>3.4669433E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6911445000000001E-3</c:v>
+                  <c:v>2.9369444000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2344920000000001E-2</c:v>
+                  <c:v>4.5453289999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6085845000000004E-2</c:v>
+                  <c:v>5.2681375000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4758823999999998E-2</c:v>
+                  <c:v>3.7590757000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6432759999999993E-2</c:v>
+                  <c:v>4.8618026000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9853300000000002E-2</c:v>
+                  <c:v>6.4949475000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9274050000000004E-2</c:v>
+                  <c:v>4.7683332000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7240515000000001E-2</c:v>
+                  <c:v>1.4177903E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2479139999999999E-2</c:v>
+                  <c:v>7.7805860000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.564806E-2</c:v>
+                  <c:v>2.3336723E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14029920000000001</c:v>
+                  <c:v>3.8193070000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6073434999999998E-2</c:v>
+                  <c:v>0.11695835</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.8957960000000001E-3</c:v>
+                  <c:v>4.9278120000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4850866000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,10 +4468,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4614,10 +4529,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4656,10 +4568,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7545,13 +7454,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>609598</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>182037</xdr:rowOff>
+      <xdr:rowOff>174417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>8465</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>16085</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7876,10 +7785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90082B2B-095B-472A-978C-CC26DA8D140C}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7908,7 +7817,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7923,13 +7832,13 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F26" si="0">AVERAGE(B2:D2)</f>
+        <f>AVERAGE(B2:D2)</f>
         <v>4.7268073333333336E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7938,19 +7847,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.4803429999999999E-3</v>
+        <v>2.5639206000000001E-3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>8.2678099999999996E-4</v>
+        <f>AVERAGE(B3:D3)</f>
+        <v>8.546402E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7959,19 +7868,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.5639206000000001E-3</v>
+        <v>8.4880300000000006E-3</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>8.546402E-4</v>
+        <f>AVERAGE(B4:D4)</f>
+        <v>2.8293433333333334E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7980,19 +7889,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.4880300000000006E-3</v>
+        <v>1.2256497E-2</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2.8293433333333334E-3</v>
+        <f>AVERAGE(B5:D5)</f>
+        <v>4.0854990000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8001,19 +7910,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.0237281000000001E-2</v>
+        <v>1.335067E-2</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.4124270000000004E-3</v>
+        <f>AVERAGE(B6:D6)</f>
+        <v>4.4502233333333337E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8022,19 +7931,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.2256497E-2</v>
+        <v>1.6847381000000002E-2</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4.0854990000000002E-3</v>
+        <f>AVERAGE(B7:D7)</f>
+        <v>5.6157936666666672E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8043,19 +7952,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.335067E-2</v>
+        <v>1.8556748000000001E-2</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4.4502233333333337E-3</v>
+        <f>AVERAGE(B8:D8)</f>
+        <v>6.1855826666666674E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8064,19 +7973,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.6847381000000002E-2</v>
+        <v>2.2091381E-2</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>5.6157936666666672E-3</v>
+        <f>AVERAGE(B9:D9)</f>
+        <v>7.3637936666666667E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8085,61 +7994,58 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.8556748000000001E-2</v>
+        <v>2.3625515E-2</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>6.1855826666666674E-3</v>
+        <f>AVERAGE(B10:D10)</f>
+        <v>7.8751716666666666E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>2.2091381E-2</v>
+        <v>1.8262886999999998E-2</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>7.3637936666666667E-3</v>
+        <f>AVERAGE(B11:D11)</f>
+        <v>9.1314434999999992E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.0565297108627999E-2</v>
       </c>
       <c r="D12">
-        <v>2.3625515E-2</v>
+        <v>1.0237281000000001E-2</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>7.8751716666666666E-3</v>
+        <f>AVERAGE(B12:D12)</f>
+        <v>1.0267526036209333E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8154,271 +8060,268 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B13:D13)</f>
         <v>1.4321418000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.2411283620759901E-2</v>
+        <v>4.1447407189805101E-2</v>
       </c>
       <c r="D14">
-        <v>1.8262886999999998E-2</v>
+        <v>2.4803429999999999E-3</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.6891390206919966E-2</v>
+        <f>AVERAGE(B14:D14)</f>
+        <v>1.4642583396601702E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05</v>
+        <v>8.55259281019481E-3</v>
       </c>
       <c r="D15">
-        <v>2.3397904000000001E-2</v>
+        <v>4.2252365E-2</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>2.4465968000000001E-2</v>
+        <f>AVERAGE(B15:D15)</f>
+        <v>1.6934985936731605E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.6278696434415098E-2</v>
+        <v>4.3107667640636699E-2</v>
       </c>
       <c r="D16">
-        <v>4.8558774999999998E-2</v>
+        <v>2.5259581999999999E-2</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.4945823811471701E-2</v>
+        <f>AVERAGE(B16:D16)</f>
+        <v>2.2789083213545568E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>4.1716603819444101E-2</v>
-      </c>
       <c r="D17">
-        <v>3.5615729999999998E-2</v>
+        <v>4.8558774999999998E-2</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>2.5777444606481365E-2</v>
+        <f>AVERAGE(B17:D17)</f>
+        <v>2.4279387499999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.7588882054033199E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D18">
-        <v>4.2252365E-2</v>
+        <v>2.3397904000000001E-2</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2.6613749018011067E-2</v>
+        <f>AVERAGE(B18:D18)</f>
+        <v>2.4465968000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.8220502901353902E-2</v>
+        <v>4.2567338641368697E-2</v>
       </c>
       <c r="D19">
-        <v>3.2419099999999999E-2</v>
+        <v>3.5615729999999998E-2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3.0213200967117965E-2</v>
+        <f>AVERAGE(B19:D19)</f>
+        <v>2.6061022880456235E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.4007179928584705E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>5.2889264000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>3.3098702109528234E-2</v>
+        <f>AVERAGE(B20:D20)</f>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>9.8826393520040703E-2</v>
       </c>
       <c r="D21">
-        <v>2.5259581999999999E-2</v>
+        <v>3.2419099999999999E-2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>4.1753194E-2</v>
+        <f>AVERAGE(B21:D21)</f>
+        <v>4.3748497840013563E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.1343649908837198E-2</v>
       </c>
       <c r="C22">
-        <v>0.13759933316409301</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.2850740000000003E-2</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4.5866444388031002E-2</v>
+        <f>AVERAGE(B22:D22)</f>
+        <v>4.473146330294573E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>6.0779930596408502E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05</v>
+        <v>0.13533059810200501</v>
       </c>
       <c r="D23">
-        <v>2.8236893999999998E-2</v>
+        <v>5.2889264000000004E-3</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>4.633894153213617E-2</v>
+        <f>AVERAGE(B23:D23)</f>
+        <v>4.687317483400167E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.0779930596408502E-2</v>
       </c>
       <c r="C24">
-        <v>6.6150762528408902E-2</v>
+        <v>5.9602704987320301E-2</v>
       </c>
       <c r="D24">
-        <v>8.4988326000000003E-2</v>
+        <v>2.8236893999999998E-2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>5.0379696176136302E-2</v>
+        <f>AVERAGE(B24:D24)</f>
+        <v>4.9539843194576272E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>5.1343649908837198E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.18843803916966601</v>
+        <v>0.15</v>
       </c>
       <c r="D25">
-        <v>3.2850740000000003E-2</v>
+        <v>8.4988326000000003E-2</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>9.0877476359501067E-2</v>
+        <f>AVERAGE(B25:D25)</f>
+        <v>7.8329441999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>0.88787641949475404</v>
       </c>
       <c r="C26">
-        <v>0.11758871637924</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
         <v>0.44798860000000001</v>
@@ -8427,8 +8330,8 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0.48448457862466471</v>
+        <f>AVERAGE(B26:D26)</f>
+        <v>0.51195500649825132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8344,7 @@
       </c>
       <c r="C28">
         <f>SUM(C2:C26)</f>
-        <v>0.99999999999999889</v>
+        <v>0.99999999999999933</v>
       </c>
       <c r="D28">
         <f>SUM(D2:D26)</f>
@@ -8467,44 +8370,44 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.13696233424654E-2</v>
+        <v>4.3400304141871598E-4</v>
       </c>
       <c r="D32">
-        <v>2.6541997000000001E-2</v>
+        <v>1.9896574E-2</v>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <f>AVERAGE(B32:D32)</f>
-        <v>1.2637206780821801E-2</v>
+        <v>6.7768590138062379E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5.173787509444E-3</v>
       </c>
       <c r="D33">
-        <v>1.9896574E-2</v>
+        <v>1.9185615999999999E-2</v>
       </c>
       <c r="E33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F59" si="1">AVERAGE(B33:D33)</f>
-        <v>6.6321913333333331E-3</v>
+        <f>AVERAGE(B33:D33)</f>
+        <v>8.1198011698146669E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -8515,154 +8418,154 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>4.1077246981121897E-3</v>
+        <v>2.7540870180659299E-3</v>
       </c>
       <c r="D34">
-        <v>1.9185615999999999E-2</v>
+        <v>2.6541997000000001E-2</v>
       </c>
       <c r="E34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>7.7644468993707293E-3</v>
+        <f>AVERAGE(B34:D34)</f>
+        <v>9.7653613393553097E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.6523128929319598E-2</v>
+        <v>8.1813828165957694E-3</v>
       </c>
       <c r="D35">
-        <v>1.8689292E-2</v>
+        <v>3.4241072999999997E-2</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>1.1737473643106533E-2</v>
+        <f>AVERAGE(B35:D35)</f>
+        <v>1.4140818605531923E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6.0049203000926404E-3</v>
+        <v>2.4688272181994701E-2</v>
       </c>
       <c r="D36">
-        <v>3.4241072999999997E-2</v>
+        <v>1.8689292E-2</v>
       </c>
       <c r="E36">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>1.341533110003088E-2</v>
+        <f>AVERAGE(B36:D36)</f>
+        <v>1.4459188060664901E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.1011941507900099E-2</v>
+        <v>1.0812392951361801E-2</v>
       </c>
       <c r="D37">
-        <v>3.3810075000000002E-2</v>
+        <v>3.3789489999999998E-2</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1.4940672169300034E-2</v>
+        <f>AVERAGE(B37:D37)</f>
+        <v>1.4867294317120599E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2.11442148264901E-2</v>
+        <v>1.1424913264159699E-2</v>
       </c>
       <c r="D38">
-        <v>2.4672486E-2</v>
+        <v>3.4757773999999998E-2</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>1.5272233608830033E-2</v>
+        <f>AVERAGE(B38:D38)</f>
+        <v>1.5394229088053232E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1.31193258588091E-2</v>
+        <v>1.7193662329520101E-2</v>
       </c>
       <c r="D39">
-        <v>3.3789489999999998E-2</v>
+        <v>3.3810075000000002E-2</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>1.5636271952936365E-2</v>
+        <f>AVERAGE(B39:D39)</f>
+        <v>1.7001245776506701E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1.29221142991223E-2</v>
+        <v>2.3893738493800901E-2</v>
       </c>
       <c r="D40">
-        <v>3.4757773999999998E-2</v>
+        <v>3.1104476999999998E-2</v>
       </c>
       <c r="E40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>1.5893296099707434E-2</v>
+        <f>AVERAGE(B40:D40)</f>
+        <v>1.8332738497933633E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2.3063101032733301E-2</v>
+        <v>2.9310389791227399E-2</v>
       </c>
       <c r="D41">
         <v>2.7828499999999999E-2</v>
@@ -8671,29 +8574,29 @@
         <v>17</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>1.6963867010911099E-2</v>
+        <f>AVERAGE(B41:D41)</f>
+        <v>1.9046296597075799E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2.2547371958211E-2</v>
+        <v>3.1130716980462901E-2</v>
       </c>
       <c r="D42">
-        <v>3.1104476999999998E-2</v>
+        <v>2.8907849999999999E-2</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>1.7883949652737E-2</v>
+        <f>AVERAGE(B42:D42)</f>
+        <v>2.0012855660154299E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8704,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1.6163313074257901E-2</v>
+        <v>1.8837042159649799E-2</v>
       </c>
       <c r="D43">
         <v>4.4104352999999999E-2</v>
@@ -8713,103 +8616,97 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>2.0089222024752634E-2</v>
+        <f>AVERAGE(B43:D43)</f>
+        <v>2.0980465053216601E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>3.3256993772153902E-2</v>
+        <v>1.69605876624126E-2</v>
       </c>
       <c r="D44">
-        <v>2.8907849999999999E-2</v>
+        <v>2.6436050999999999E-2</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>2.0721614590717967E-2</v>
+        <f>AVERAGE(B44:D44)</f>
+        <v>2.1698319331206299E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3.55078814790524E-2</v>
+        <v>3.6717778988146398E-2</v>
       </c>
       <c r="D45">
-        <v>3.6637217E-2</v>
+        <v>2.8969293E-2</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>2.4048366159684132E-2</v>
+        <f>AVERAGE(B45:D45)</f>
+        <v>2.1895690662715465E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>4.3696807414671898E-2</v>
+        <v>3.2469241471168697E-2</v>
       </c>
       <c r="D46">
-        <v>2.8969293E-2</v>
+        <v>3.6637217E-2</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>2.4222033471557297E-2</v>
+        <f>AVERAGE(B46:D46)</f>
+        <v>2.3035486157056233E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>3.9134774253264802E-2</v>
+        <v>1.4502684817016E-2</v>
       </c>
       <c r="D47">
-        <v>4.3189984000000001E-2</v>
+        <v>3.4415319999999999E-2</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>2.7441586084421599E-2</v>
+        <f>AVERAGE(B47:D47)</f>
+        <v>2.4459002408507999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5.5713174110597702E-2</v>
+        <v>4.77958776607064E-2</v>
       </c>
       <c r="D48">
         <v>3.1787577999999997E-2</v>
@@ -8818,40 +8715,40 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>2.9166917370199233E-2</v>
+        <f>AVERAGE(B48:D48)</f>
+        <v>2.65278185535688E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>6.7288371675249606E-2</v>
+        <v>3.6414235831236097E-2</v>
       </c>
       <c r="D49">
-        <v>2.4339583000000001E-2</v>
+        <v>4.3189984000000001E-2</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>3.0542651558416536E-2</v>
+        <f>AVERAGE(B49:D49)</f>
+        <v>2.6534739943745365E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5.3685909595841998E-2</v>
+        <v>4.44211741563348E-2</v>
       </c>
       <c r="D50">
         <v>4.1190600000000001E-2</v>
@@ -8860,197 +8757,191 @@
         <v>11</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>3.1625503198614E-2</v>
+        <f>AVERAGE(B50:D50)</f>
+        <v>2.8537258052111603E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>5.6043362993757798E-2</v>
+        <v>6.36716882586571E-2</v>
       </c>
       <c r="D51">
-        <v>4.2737518000000002E-2</v>
+        <v>2.4339583000000001E-2</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>3.29269603312526E-2</v>
+        <f>AVERAGE(B51:D51)</f>
+        <v>2.9337090419552365E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>5.25561184790257E-2</v>
+        <v>4.5681519885236999E-2</v>
       </c>
       <c r="D52">
-        <v>5.2326023999999999E-2</v>
+        <v>4.8471075000000002E-2</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>3.4960714159675228E-2</v>
+        <f>AVERAGE(B52:D52)</f>
+        <v>3.1384198295078998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>6.4157968981606403E-2</v>
+        <v>5.9660822759623401E-2</v>
       </c>
       <c r="D53">
-        <v>4.9658663999999998E-2</v>
+        <v>4.2737518000000002E-2</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>3.7938877660535469E-2</v>
+        <f>AVERAGE(B53:D53)</f>
+        <v>3.4132780253207796E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>6.6847451155360602E-2</v>
+        <v>7.4029179285588803E-2</v>
       </c>
       <c r="D54">
-        <v>4.8471075000000002E-2</v>
+        <v>4.9658663999999998E-2</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>3.8439508718453537E-2</v>
+        <f>AVERAGE(B54:D54)</f>
+        <v>4.1229281095196267E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>6.8421073852600101E-2</v>
+        <v>4.7595426095530503E-2</v>
       </c>
       <c r="C55">
-        <v>1.4361427788048799E-2</v>
+        <v>6.3978546857598503E-2</v>
       </c>
       <c r="D55">
-        <v>3.4415319999999999E-2</v>
+        <v>3.1605679999999997E-2</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>3.906594054688297E-2</v>
+        <f>AVERAGE(B55:D55)</f>
+        <v>4.7726550984376337E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>9.2490359143049206E-2</v>
+        <v>9.3719241478471396E-2</v>
       </c>
       <c r="D56">
-        <v>6.1907759999999999E-2</v>
+        <v>6.8798079999999998E-2</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>5.1466039714349737E-2</v>
+        <f>AVERAGE(B56:D56)</f>
+        <v>8.1258660739235697E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>9.1238496793522805E-2</v>
+        <v>0.111278941534251</v>
       </c>
       <c r="D57">
-        <v>6.8798079999999998E-2</v>
+        <v>6.1907759999999999E-2</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>5.3345525597840927E-2</v>
+        <f>AVERAGE(B57:D57)</f>
+        <v>8.6593350767125501E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>0.407798434116803</v>
+        <v>0.43282214005895098</v>
       </c>
       <c r="C58">
-        <v>6.2430627517228901E-2</v>
+        <v>2.26383346085419E-2</v>
       </c>
       <c r="D58">
-        <v>3.1605679999999997E-2</v>
+        <v>2.4672486E-2</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>0.16727824721134396</v>
+        <f>AVERAGE(B58:D58)</f>
+        <v>0.16004432022249762</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B59">
-        <v>0.52378049203059596</v>
+        <v>0.51958243384551805</v>
       </c>
       <c r="C59">
-        <v>1.36134950200529E-2</v>
+        <v>5.2225756207306497E-2</v>
       </c>
       <c r="D59">
-        <v>2.6436050999999999E-2</v>
+        <v>5.2326023999999999E-2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0.18794334601688298</v>
+        <f>AVERAGE(B59:D59)</f>
+        <v>0.20804473801760817</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9059,15 +8950,15 @@
       </c>
       <c r="B61">
         <f>SUM(B32:B59)</f>
-        <v>0.99999999999999911</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="C61">
         <f>SUM(C32:C59)</f>
-        <v>0.99999999999999922</v>
+        <v>0.99999999999999845</v>
       </c>
       <c r="D61">
         <f>SUM(D32:D59)</f>
-        <v>0.99999998400000001</v>
+        <v>0.9999999839999999</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9089,34 +8980,34 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6.4150903089348803E-3</v>
       </c>
       <c r="C64">
-        <v>2.0689694143631698E-2</v>
+        <v>3.4821917921220802E-2</v>
       </c>
       <c r="D64">
-        <v>3.7232797999999998E-2</v>
+        <v>2.8799003E-2</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:F79" si="2">AVERAGE(B64:D64)</f>
-        <v>1.9307497381210566E-2</v>
+        <f>AVERAGE(B64:D64)</f>
+        <v>2.3345337076718559E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3.5276716657515902E-3</v>
       </c>
       <c r="C65">
-        <v>4.0797706296934202E-2</v>
+        <v>4.8385341327048401E-2</v>
       </c>
       <c r="D65">
         <v>1.8806577000000001E-2</v>
@@ -9125,197 +9016,185 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
-        <v>1.9868094432311401E-2</v>
+        <f>AVERAGE(B65:D65)</f>
+        <v>2.3573196664266664E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>9.94276197468647E-3</v>
+        <v>2.3325187281549899E-2</v>
       </c>
       <c r="C66">
-        <v>3.0046634036495601E-2</v>
+        <v>2.93681564835192E-2</v>
       </c>
       <c r="D66">
-        <v>2.8799003E-2</v>
+        <v>2.7119913999999998E-2</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
-        <v>2.2929466337060691E-2</v>
+        <f>AVERAGE(B66:D66)</f>
+        <v>2.6604419255023031E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.26999951925835E-3</v>
       </c>
       <c r="C67">
-        <v>2.3989620800187201E-2</v>
+        <v>4.2735673464106699E-2</v>
       </c>
       <c r="D67">
-        <v>4.4872509999999997E-2</v>
+        <v>4.1655585000000002E-2</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
-        <v>2.2954043600062399E-2</v>
+        <f>AVERAGE(B67:D67)</f>
+        <v>2.8553752661121683E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>2.3325187281549899E-2</v>
+        <v>1.70721246851118E-3</v>
       </c>
       <c r="C68">
-        <v>3.1900384626099697E-2</v>
+        <v>5.9821479939401602E-2</v>
       </c>
       <c r="D68">
-        <v>2.7119913999999998E-2</v>
+        <v>2.46083E-2</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
-        <v>2.7448495302549863E-2</v>
+        <f>AVERAGE(B68:D68)</f>
+        <v>2.8712330802637593E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69">
-        <v>1.26999951925835E-3</v>
+        <v>23</v>
       </c>
       <c r="C69">
-        <v>6.1956943949913502E-2</v>
+        <v>2.2147553812215701E-2</v>
       </c>
       <c r="D69">
-        <v>2.46083E-2</v>
+        <v>3.7232797999999998E-2</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
-        <v>2.9278414489723948E-2</v>
+        <f>AVERAGE(B69:D69)</f>
+        <v>2.9690175906107848E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70">
-        <v>1.70721246851118E-3</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>5.1911882017069498E-2</v>
+        <v>2.4006370417154199E-2</v>
       </c>
       <c r="D70">
-        <v>4.1655585000000002E-2</v>
+        <v>4.4872509999999997E-2</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
-        <v>3.175822649519356E-2</v>
+        <f>AVERAGE(B70:D70)</f>
+        <v>3.4439440208577102E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1.63895020766728E-2</v>
       </c>
       <c r="C71">
-        <v>5.1686426146887003E-2</v>
+        <v>3.3307748366787501E-2</v>
       </c>
       <c r="D71">
-        <v>4.6036117000000001E-2</v>
+        <v>6.2229517999999998E-2</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
-        <v>3.2574181048962335E-2</v>
+        <f>AVERAGE(B71:D71)</f>
+        <v>3.7308922814486771E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72">
-        <v>1.63895020766728E-2</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>2.5868476641652299E-2</v>
+        <v>4.91557288725872E-2</v>
       </c>
       <c r="D72">
-        <v>6.2229517999999998E-2</v>
+        <v>4.6036117000000001E-2</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
-        <v>3.4829165572775031E-2</v>
+        <f>AVERAGE(B72:D72)</f>
+        <v>4.7595922936293597E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>8.6360974897754697E-2</v>
       </c>
       <c r="C73">
-        <v>6.5736175793811705E-2</v>
+        <v>3.9533482294122999E-2</v>
       </c>
       <c r="D73">
-        <v>4.6280228E-2</v>
+        <v>2.2550968000000001E-2</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
-        <v>3.7338801264603899E-2</v>
+        <f>AVERAGE(B73:D73)</f>
+        <v>4.9481808397292569E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74">
-        <v>8.6360974897754697E-2</v>
+        <v>45</v>
       </c>
       <c r="C74">
-        <v>3.5824050517933498E-2</v>
+        <v>5.39667956902442E-2</v>
       </c>
       <c r="D74">
-        <v>2.2550968000000001E-2</v>
+        <v>4.6280228E-2</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
-        <v>4.8245331138562726E-2</v>
+        <f>AVERAGE(B74:D74)</f>
+        <v>5.01235118451221E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9326,7 +9205,7 @@
         <v>5.3303386441413199E-2</v>
       </c>
       <c r="C75">
-        <v>4.6078532027777903E-2</v>
+        <v>4.7769490347469502E-2</v>
       </c>
       <c r="D75">
         <v>6.9222839999999994E-2</v>
@@ -9335,19 +9214,19 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
-        <v>5.6201586156397032E-2</v>
+        <f>AVERAGE(B75:D75)</f>
+        <v>5.6765238929627565E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>2.7447863110991299E-3</v>
       </c>
       <c r="C76">
-        <v>0.109684582051393</v>
+        <v>0.109199517304998</v>
       </c>
       <c r="D76">
         <v>9.0335496000000001E-2</v>
@@ -9356,19 +9235,19 @@
         <v>9</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
-        <v>6.7588288120830717E-2</v>
+        <f>AVERAGE(B76:D76)</f>
+        <v>6.7426599872032381E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B77">
         <v>0.100314873647039</v>
       </c>
       <c r="C77">
-        <v>5.9411623580141598E-2</v>
+        <v>6.2395651458898402E-2</v>
       </c>
       <c r="D77">
         <v>5.1630143000000003E-2</v>
@@ -9377,8 +9256,8 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
-        <v>7.0452213409060202E-2</v>
+        <f>AVERAGE(B77:D77)</f>
+        <v>7.1446889368645808E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -9389,7 +9268,7 @@
         <v>0.30481344570865399</v>
       </c>
       <c r="C78">
-        <v>0.13148959658147799</v>
+        <v>0.148849857241133</v>
       </c>
       <c r="D78">
         <v>0.15213546</v>
@@ -9398,19 +9277,19 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
-        <v>0.19614616743004398</v>
+        <f>AVERAGE(B78:D78)</f>
+        <v>0.20193292098326232</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>0.39982786967335998</v>
       </c>
       <c r="C79">
-        <v>0.21292767078859101</v>
+        <v>0.19453523505909101</v>
       </c>
       <c r="D79">
         <v>0.23648458999999999</v>
@@ -9419,8 +9298,8 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
-        <v>0.28308004348731702</v>
+        <f>AVERAGE(B79:D79)</f>
+        <v>0.27694923157748369</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -9432,11 +9311,11 @@
         <v>0.99999999999999867</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:D81" si="3">SUM(C64:C79)</f>
-        <v>0.99999999999999734</v>
+        <f t="shared" ref="C81:D81" si="0">SUM(C64:C79)</f>
+        <v>0.99999999999999833</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0000000469999999</v>
       </c>
     </row>
@@ -9462,503 +9341,497 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>6.06925936341993E-3</v>
+        <v>1.2424978486303501E-2</v>
       </c>
       <c r="D85">
-        <v>7.3042699999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>26</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F112" si="4">AVERAGE(B85:D85)</f>
-        <v>6.6867646817099649E-3</v>
+        <f>AVERAGE(B85:D85)</f>
+        <v>6.2124892431517503E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>2.4366448417081298E-3</v>
+        <v>2.16658633269992E-3</v>
       </c>
       <c r="D86">
-        <v>2.1768284999999998E-2</v>
+        <v>1.6131400000000001E-2</v>
       </c>
       <c r="E86">
         <v>28</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
-        <v>1.2102464920854063E-2</v>
+        <f>AVERAGE(B86:D86)</f>
+        <v>9.1489931663499609E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C87">
-        <v>5.9448474966467199E-3</v>
+        <v>1.1342755815405101E-2</v>
       </c>
       <c r="D87">
-        <v>2.327212E-2</v>
+        <v>1.0481473999999999E-2</v>
       </c>
       <c r="E87">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
-        <v>1.460848374832336E-2</v>
+        <f>AVERAGE(B87:D87)</f>
+        <v>1.0912114907702549E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C88">
-        <v>1.12315643893692E-2</v>
+        <v>1.39199049772183E-2</v>
       </c>
       <c r="D88">
-        <v>1.9657819E-2</v>
+        <v>1.441839E-2</v>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
-        <v>1.54446916946846E-2</v>
+        <f>AVERAGE(B88:D88)</f>
+        <v>1.416914748860915E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C89">
-        <v>1.2580327438033501E-2</v>
+        <v>4.6943393908018298E-3</v>
       </c>
       <c r="D89">
-        <v>2.1830598E-2</v>
+        <v>2.3687710000000001E-2</v>
       </c>
       <c r="E89">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
-        <v>1.720546271901675E-2</v>
+        <f>AVERAGE(B89:D89)</f>
+        <v>1.4191024695400916E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C90">
-        <v>1.54238854082122E-2</v>
+        <v>5.8211198009536997E-3</v>
       </c>
       <c r="D90">
-        <v>2.0986399999999999E-2</v>
+        <v>2.268906E-2</v>
       </c>
       <c r="E90">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
-        <v>1.82051427041061E-2</v>
+        <f>AVERAGE(B90:D90)</f>
+        <v>1.425508990047685E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C91">
-        <v>1.4414089803762299E-2</v>
+        <v>1.4042615888174599E-2</v>
       </c>
       <c r="D91">
-        <v>2.3196515000000001E-2</v>
+        <v>1.4702585000000001E-2</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
-        <v>1.8805302401881149E-2</v>
+        <f>AVERAGE(B91:D91)</f>
+        <v>1.4372600444087301E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C92">
-        <v>2.0099137605633401E-2</v>
+        <v>1.448410396974E-2</v>
       </c>
       <c r="D92">
-        <v>1.8574403999999999E-2</v>
+        <v>1.590743E-2</v>
       </c>
       <c r="E92">
         <v>15</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
-        <v>1.9336770802816698E-2</v>
+        <f>AVERAGE(B92:D92)</f>
+        <v>1.5195766984870001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C93">
-        <v>7.2761553025644504E-3</v>
+        <v>4.6873740947423401E-3</v>
       </c>
       <c r="D93">
-        <v>3.3744077999999997E-2</v>
+        <v>2.6861738E-2</v>
       </c>
       <c r="E93">
         <v>24</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
-        <v>2.0510116651282224E-2</v>
+        <f>AVERAGE(B93:D93)</f>
+        <v>1.5774556047371172E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>1.74809381976695E-2</v>
+        <v>1.2693870437876901E-2</v>
       </c>
       <c r="D94">
-        <v>2.4665741000000001E-2</v>
+        <v>1.9227475000000001E-2</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
-        <v>2.1073339598834749E-2</v>
+        <f>AVERAGE(B94:D94)</f>
+        <v>1.5960672718938453E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>3.4387430947413401E-2</v>
+        <v>2.4734150826782198E-3</v>
       </c>
       <c r="D95">
-        <v>9.5498630000000004E-3</v>
+        <v>3.1993042999999999E-2</v>
       </c>
       <c r="E95">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
-        <v>2.19686469737067E-2</v>
+        <f>AVERAGE(B95:D95)</f>
+        <v>1.7233229041339108E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>1.5872456938852898E-2</v>
+        <v>4.0027799433854398E-3</v>
       </c>
       <c r="D96">
-        <v>2.8667198000000001E-2</v>
+        <v>3.1195804000000001E-2</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
-        <v>2.2269827469426448E-2</v>
+        <f>AVERAGE(B96:D96)</f>
+        <v>1.7599291971692719E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>1.6904664463147701E-2</v>
+        <v>1.0255046556804001E-2</v>
       </c>
       <c r="D97">
-        <v>2.8963659999999999E-2</v>
+        <v>2.7315885000000002E-2</v>
       </c>
       <c r="E97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
-        <v>2.2934162231573851E-2</v>
+        <f>AVERAGE(B97:D97)</f>
+        <v>1.8785465778402E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>6.9225742351025302E-3</v>
+        <v>2.0439234551502199E-2</v>
       </c>
       <c r="D98">
-        <v>3.9859165000000002E-2</v>
+        <v>2.7759296999999999E-2</v>
       </c>
       <c r="E98">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
-        <v>2.3390869617551265E-2</v>
+        <f>AVERAGE(B98:D98)</f>
+        <v>2.4099265775751097E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>1.11485560840263E-2</v>
+        <v>2.1922481832672501E-2</v>
       </c>
       <c r="D99">
-        <v>4.0919002000000003E-2</v>
+        <v>2.9850056E-2</v>
       </c>
       <c r="E99">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
-        <v>2.603377904201315E-2</v>
+        <f>AVERAGE(B99:D99)</f>
+        <v>2.588626891633625E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>5.0781156422844601E-2</v>
+        <v>1.22620204036829E-2</v>
       </c>
       <c r="D100">
-        <v>1.753743E-2</v>
+        <v>4.4020638000000001E-2</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
-        <v>3.4159293211422304E-2</v>
+        <f>AVERAGE(B100:D100)</f>
+        <v>2.8141329201841449E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101">
-        <v>2.7272727272727199E-2</v>
+        <v>45</v>
       </c>
       <c r="C101">
-        <v>4.2755427121325802E-2</v>
+        <v>3.2122318264870102E-2</v>
       </c>
       <c r="D101">
-        <v>3.5589669999999997E-2</v>
+        <v>2.7311354999999999E-2</v>
       </c>
       <c r="E101">
         <v>7</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
-        <v>3.520594146468433E-2</v>
+        <f>AVERAGE(B101:D101)</f>
+        <v>2.9716836632435052E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="B102">
+        <v>5.0000000000000301E-2</v>
       </c>
       <c r="C102">
-        <v>4.1400655448717398E-2</v>
+        <v>8.9504586120057704E-3</v>
       </c>
       <c r="D102">
-        <v>2.9954973999999999E-2</v>
+        <v>3.3963010000000002E-2</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
-        <v>3.56778147243587E-2</v>
+        <f>AVERAGE(B102:D102)</f>
+        <v>3.0971156204002023E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C103">
-        <v>2.3590027875762101E-2</v>
+        <v>4.049802453391E-2</v>
       </c>
       <c r="D103">
-        <v>5.0215296E-2</v>
+        <v>3.819724E-2</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
-        <v>3.6902661937881054E-2</v>
+        <f>AVERAGE(B103:D103)</f>
+        <v>3.9347632266955E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>8.1818181818181804E-2</v>
+        <v>46</v>
       </c>
       <c r="C104">
-        <v>5.8079749572945202E-3</v>
+        <v>6.21102908868707E-2</v>
       </c>
       <c r="D104">
-        <v>2.8677775999999999E-2</v>
+        <v>2.0025508000000001E-2</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
-        <v>3.8767977591825438E-2</v>
+        <f>AVERAGE(B104:D104)</f>
+        <v>4.1067899443435349E-2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>4.9999999999999899E-2</v>
       </c>
       <c r="C105">
-        <v>5.2061569677738798E-2</v>
+        <v>7.9152944232865202E-2</v>
       </c>
       <c r="D105">
-        <v>4.5951265999999998E-2</v>
+        <v>2.4397759000000002E-2</v>
       </c>
       <c r="E105">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
-        <v>4.9006417838869401E-2</v>
+        <f>AVERAGE(B105:D105)</f>
+        <v>5.1183567744288366E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>39</v>
-      </c>
-      <c r="B106">
-        <v>7.2727272727272904E-2</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>7.04910270756402E-2</v>
+        <v>4.6896680515541397E-2</v>
       </c>
       <c r="D106">
-        <v>2.2878075000000001E-2</v>
+        <v>6.1539759999999999E-2</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
-        <v>5.5365458267637703E-2</v>
+        <f>AVERAGE(B106:D106)</f>
+        <v>5.4218220257770698E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <v>0.109090909090909</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="C107">
-        <v>4.1990307226376103E-2</v>
+        <v>3.8998083367575001E-2</v>
       </c>
       <c r="D107">
-        <v>3.9849464000000001E-2</v>
+        <v>4.1953940000000002E-2</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
-        <v>6.3643560105761707E-2</v>
+        <f>AVERAGE(B107:D107)</f>
+        <v>6.0317341122524966E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>26</v>
       </c>
-      <c r="B108">
-        <v>9.0909090909090898E-2</v>
-      </c>
       <c r="C108">
-        <v>6.2212408438122403E-2</v>
+        <v>8.7812659557699402E-2</v>
       </c>
       <c r="D108">
-        <v>3.8084519999999997E-2</v>
+        <v>3.3461478000000003E-2</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
-        <v>6.3735339782404435E-2</v>
+        <f>AVERAGE(B108:D108)</f>
+        <v>6.0637068778849702E-2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>9.88381382979273E-2</v>
+        <v>9.2925133352523698E-2</v>
       </c>
       <c r="D109">
-        <v>4.7623459999999999E-2</v>
+        <v>9.6925600000000001E-2</v>
       </c>
       <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
-        <v>7.3230799148963646E-2</v>
+        <f>AVERAGE(B109:D109)</f>
+        <v>9.4925366676261849E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110">
-        <v>0.109090909090909</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>0.25714198191408899</v>
+        <v>2.9699363078897902E-2</v>
       </c>
       <c r="D110">
-        <v>1.9797190999999999E-2</v>
+        <v>0.20628895999999999</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
-        <v>0.12867669400166601</v>
+        <f>AVERAGE(B110:D110)</f>
+        <v>0.11799416153944894</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>0.149999999999999</v>
       </c>
       <c r="C111">
-        <v>4.3165635659468397E-2</v>
+        <v>0.30529369274774498</v>
       </c>
       <c r="D111">
-        <v>0.24428841000000001</v>
+        <v>3.2750416999999997E-2</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
-        <v>0.14372702282973421</v>
+        <f>AVERAGE(B111:D111)</f>
+        <v>0.16268136991591467</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -9966,20 +9839,20 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>0.50909090909090804</v>
+        <v>0.64999999999999902</v>
       </c>
       <c r="C112">
-        <v>1.15711573691301E-2</v>
+        <v>7.9077232848534205E-3</v>
       </c>
       <c r="D112">
-        <v>1.6593271999999999E-2</v>
+        <v>2.6942968000000001E-2</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
-        <v>0.17908511282001272</v>
+        <f>AVERAGE(B112:D112)</f>
+        <v>0.22828356376161749</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -9988,15 +9861,15 @@
       </c>
       <c r="B114">
         <f>SUM(B85:B112)</f>
-        <v>0.99999999999999889</v>
+        <v>0.99999999999999811</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:D114" si="5">SUM(C85:C112)</f>
-        <v>0.99999999999999878</v>
+        <f t="shared" ref="C114:D114" si="1">SUM(C85:C112)</f>
+        <v>0.99999999999999911</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
-        <v>0.99999992199999999</v>
+        <f t="shared" si="1"/>
+        <v>0.99999998000000001</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -10018,416 +9891,396 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C118">
-        <v>3.8901499260042999E-4</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>37</v>
+        <v>5.9695053100722502E-4</v>
       </c>
       <c r="F118">
-        <f t="shared" ref="F118:F154" si="6">AVERAGE(B118:D118)</f>
-        <v>1.94507496300215E-4</v>
+        <f>AVERAGE(B118:D118)</f>
+        <v>5.9695053100722502E-4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C119">
-        <v>1.4485165368598599E-3</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
+        <v>8.5858548778428804E-4</v>
       </c>
       <c r="E119">
         <v>36</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
-        <v>7.2425826842992995E-4</v>
+        <f>AVERAGE(B119:D119)</f>
+        <v>8.5858548778428804E-4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C120">
-        <v>3.3092349133068402E-3</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
+        <v>3.9036999447776399E-3</v>
       </c>
       <c r="E120">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F120">
-        <f t="shared" si="6"/>
-        <v>1.6546174566534201E-3</v>
+        <f>AVERAGE(B120:D120)</f>
+        <v>3.9036999447776399E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="1">
-        <v>1.2312298315025001E-16</v>
+        <v>30</v>
       </c>
       <c r="C121">
-        <v>3.68868077005874E-3</v>
+        <v>4.1368895131442497E-3</v>
       </c>
       <c r="E121">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
-        <v>1.8443403850294316E-3</v>
+        <f>AVERAGE(B121:D121)</f>
+        <v>4.1368895131442497E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C122">
-        <v>4.4295232718015503E-3</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
+        <v>7.5907724794517101E-3</v>
       </c>
       <c r="E122">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
-        <v>2.2147616359007752E-3</v>
+        <f>AVERAGE(B122:D122)</f>
+        <v>7.5907724794517101E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C123">
-        <v>8.4959527562301698E-3</v>
+        <v>3.1671160695912002E-3</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1.2168365E-2</v>
       </c>
       <c r="E123">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
-        <v>4.2479763781150849E-3</v>
+        <f>AVERAGE(B123:D123)</f>
+        <v>7.6677405347956003E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.2312298315025001E-16</v>
       </c>
       <c r="C124">
-        <v>9.5060294066579894E-3</v>
+        <v>3.8180315291195398E-3</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>2.0565199999999999E-2</v>
       </c>
       <c r="E124">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
-        <v>4.7530147033289947E-3</v>
+        <f>AVERAGE(B124:D124)</f>
+        <v>8.1277438430398877E-3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C125">
-        <v>1.45047222569949E-2</v>
+        <v>3.49019991512857E-3</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1.5122203000000001E-2</v>
       </c>
       <c r="E125">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
-        <v>7.2523611284974502E-3</v>
+        <f>AVERAGE(B125:D125)</f>
+        <v>9.3062014575642851E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C126">
-        <v>3.5235727630882801E-3</v>
-      </c>
-      <c r="D126">
-        <v>1.2372925999999999E-2</v>
+        <v>1.1212141839859101E-2</v>
       </c>
       <c r="E126">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
-        <v>7.9482493815441393E-3</v>
+        <f>AVERAGE(B126:D126)</f>
+        <v>1.1212141839859101E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="1">
-        <v>-1.84684474725375E-16</v>
+        <v>41</v>
       </c>
       <c r="C127">
-        <v>1.7435744920963499E-2</v>
+        <v>2.52953747070544E-2</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
-        <v>8.7178724604816578E-3</v>
+        <f>AVERAGE(B127:D127)</f>
+        <v>1.26476873535272E-2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C128">
-        <v>3.7570383547467202E-3</v>
+        <v>3.1823164260444698E-3</v>
       </c>
       <c r="D128">
-        <v>1.7463672999999999E-2</v>
+        <v>2.2231467000000001E-2</v>
       </c>
       <c r="E128">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
-        <v>1.0610355677373359E-2</v>
+        <f>AVERAGE(B128:D128)</f>
+        <v>1.2706891713022236E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C129">
-        <v>2.47517775827567E-2</v>
+        <v>4.9278074759604197E-3</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2.0629046000000002E-2</v>
       </c>
       <c r="E129">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F129">
-        <f t="shared" si="6"/>
-        <v>1.237588879137835E-2</v>
+        <f>AVERAGE(B129:D129)</f>
+        <v>1.2778426737980211E-2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B130">
         <v>5.7182464044360903E-3</v>
       </c>
       <c r="C130">
-        <v>1.4786822605444099E-2</v>
+        <v>1.7610541966037601E-2</v>
       </c>
       <c r="D130">
-        <v>1.6628127999999999E-2</v>
+        <v>1.5843663000000001E-2</v>
       </c>
       <c r="E130">
         <v>12</v>
       </c>
       <c r="F130">
-        <f t="shared" si="6"/>
-        <v>1.2377732336626729E-2</v>
+        <f>AVERAGE(B130:D130)</f>
+        <v>1.3057483790157897E-2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C131">
-        <v>4.3080131139197602E-3</v>
+        <v>3.9552887530729802E-4</v>
       </c>
       <c r="D131">
-        <v>2.2045787000000001E-2</v>
+        <v>3.2151411999999997E-2</v>
       </c>
       <c r="E131">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F131">
-        <f t="shared" si="6"/>
-        <v>1.317690005695988E-2</v>
+        <f>AVERAGE(B131:D131)</f>
+        <v>1.6273470437653648E-2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C132">
-        <v>5.5456910751808999E-3</v>
+        <v>1.57219181441536E-2</v>
       </c>
       <c r="D132">
-        <v>2.1255663000000001E-2</v>
+        <v>1.814315E-2</v>
       </c>
       <c r="E132">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F132">
-        <f t="shared" si="6"/>
-        <v>1.3400677037590451E-2</v>
+        <f>AVERAGE(B132:D132)</f>
+        <v>1.6932534072076802E-2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B133">
         <v>3.7081961531795701E-2</v>
       </c>
       <c r="C133">
-        <v>7.9191497380332494E-3</v>
+        <v>6.4649208488611002E-3</v>
       </c>
       <c r="D133">
-        <v>9.7907199999999993E-3</v>
+        <v>9.2965870000000003E-3</v>
       </c>
       <c r="E133">
         <v>9</v>
       </c>
       <c r="F133">
-        <f t="shared" si="6"/>
-        <v>1.8263943756609651E-2</v>
+        <f>AVERAGE(B133:D133)</f>
+        <v>1.7614489793552266E-2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134">
-        <v>4.2280367354011097E-2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B134" s="1"/>
       <c r="C134">
-        <v>1.66656713186564E-2</v>
-      </c>
-      <c r="D134">
-        <v>3.1536676E-3</v>
+        <v>1.8275515379902001E-2</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F134">
-        <f t="shared" si="6"/>
-        <v>2.0699902090889167E-2</v>
+        <f>AVERAGE(B134:D134)</f>
+        <v>1.8275515379902001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="B135">
+        <v>7.1911280540634497E-3</v>
       </c>
       <c r="C135">
-        <v>1.54212798323023E-2</v>
+        <v>1.7766736478698801E-2</v>
       </c>
       <c r="D135">
-        <v>2.7782821999999999E-2</v>
+        <v>4.0356049999999997E-2</v>
       </c>
       <c r="E135">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F135">
-        <f t="shared" si="6"/>
-        <v>2.1602050916151149E-2</v>
+        <f>AVERAGE(B135:D135)</f>
+        <v>2.1771304844254085E-2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>51</v>
-      </c>
-      <c r="B136">
-        <v>7.1911280540634497E-3</v>
+        <v>48</v>
       </c>
       <c r="C136">
-        <v>2.0022771981975301E-2</v>
+        <v>1.75283807653723E-2</v>
       </c>
       <c r="D136">
-        <v>4.554064E-2</v>
+        <v>2.6248235000000002E-2</v>
       </c>
       <c r="E136">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F136">
-        <f t="shared" si="6"/>
-        <v>2.425151334534625E-2</v>
+        <f>AVERAGE(B136:D136)</f>
+        <v>2.1888307882686149E-2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="B137">
+        <v>4.6092531623634997E-2</v>
       </c>
       <c r="C137">
-        <v>2.9751347529025501E-2</v>
+        <v>2.86230295708448E-3</v>
       </c>
       <c r="D137">
-        <v>2.0965166E-2</v>
+        <v>2.7274030000000001E-2</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <f t="shared" si="6"/>
-        <v>2.5358256764512751E-2</v>
+        <f>AVERAGE(B137:D137)</f>
+        <v>2.5409621526906494E-2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B138">
-        <v>4.6092531623634997E-2</v>
+        <v>4.2280367354011097E-2</v>
       </c>
       <c r="C138">
-        <v>1.8835917558361101E-3</v>
+        <v>2.6725954819771799E-2</v>
       </c>
       <c r="D138">
-        <v>3.0052599999999999E-2</v>
+        <v>7.276813E-3</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <f t="shared" si="6"/>
-        <v>2.6009574459823704E-2</v>
+        <f>AVERAGE(B138:D138)</f>
+        <v>2.5427711724594303E-2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B139">
         <v>5.1810778028070902E-2</v>
       </c>
       <c r="C139">
-        <v>1.4759085302236299E-3</v>
+        <v>2.01643618980234E-3</v>
       </c>
       <c r="D139">
-        <v>2.7151851000000001E-2</v>
+        <v>2.6873173E-2</v>
       </c>
       <c r="E139">
         <v>5</v>
       </c>
       <c r="F139">
-        <f t="shared" si="6"/>
-        <v>2.6812845852764843E-2</v>
+        <f>AVERAGE(B139:D139)</f>
+        <v>2.6900129072624412E-2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -10435,309 +10288,327 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>1.7189621237359901E-2</v>
+        <v>2.3804744569701899E-2</v>
       </c>
       <c r="D140">
-        <v>3.6748032999999999E-2</v>
+        <v>3.1112483E-2</v>
       </c>
       <c r="E140">
         <v>24</v>
       </c>
       <c r="F140">
-        <f t="shared" si="6"/>
-        <v>2.6968827118679949E-2</v>
+        <f>AVERAGE(B140:D140)</f>
+        <v>2.7458613784850948E-2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C141">
-        <v>2.47630429209145E-2</v>
+        <v>2.2831482630508802E-2</v>
       </c>
       <c r="D141">
-        <v>3.3971372999999999E-2</v>
+        <v>3.4669433E-2</v>
       </c>
       <c r="E141">
         <v>20</v>
       </c>
       <c r="F141">
-        <f t="shared" si="6"/>
-        <v>2.9367207960457248E-2</v>
+        <f>AVERAGE(B141:D141)</f>
+        <v>2.8750457815254399E-2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142">
-        <v>6.2034309478426003E-2</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>2.6226301536354399E-2</v>
+        <v>3.0798795967300601E-2</v>
       </c>
       <c r="D142">
-        <v>4.6911445000000001E-3</v>
+        <v>2.9369444000000001E-2</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F142">
-        <f t="shared" si="6"/>
-        <v>3.0983918504926797E-2</v>
+        <f>AVERAGE(B142:D142)</f>
+        <v>3.00841199836503E-2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B143">
-        <v>3.3962918038469403E-2</v>
+        <v>6.2034309478426003E-2</v>
       </c>
       <c r="C143">
-        <v>3.2191267408930399E-2</v>
+        <v>3.1595941082817297E-2</v>
       </c>
       <c r="D143">
-        <v>4.2344920000000001E-2</v>
+        <v>4.5453289999999999E-3</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F143">
-        <f t="shared" si="6"/>
-        <v>3.6166368482466599E-2</v>
+        <f>AVERAGE(B143:D143)</f>
+        <v>3.27251931870811E-2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144">
-        <v>4.2626927742158698E-2</v>
+        <v>18</v>
       </c>
       <c r="C144">
-        <v>1.4895641926662E-2</v>
+        <v>1.5295158620873999E-2</v>
       </c>
       <c r="D144">
-        <v>6.6085845000000004E-2</v>
+        <v>5.2681375000000003E-2</v>
       </c>
       <c r="E144">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F144">
-        <f t="shared" si="6"/>
-        <v>4.1202804889606898E-2</v>
+        <f>AVERAGE(B144:D144)</f>
+        <v>3.3988266810436998E-2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="B145">
+        <v>3.3962918038469403E-2</v>
       </c>
       <c r="C145">
-        <v>2.83373445114905E-2</v>
+        <v>3.2375253567245799E-2</v>
       </c>
       <c r="D145">
-        <v>5.4758823999999998E-2</v>
+        <v>3.7590757000000002E-2</v>
       </c>
       <c r="E145">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F145">
-        <f t="shared" si="6"/>
-        <v>4.154808425574525E-2</v>
+        <f>AVERAGE(B145:D145)</f>
+        <v>3.4642976201905068E-2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C146">
-        <v>1.73384352629396E-2</v>
+        <v>2.1141589608389601E-2</v>
       </c>
       <c r="D146">
-        <v>6.6432759999999993E-2</v>
+        <v>4.8618026000000002E-2</v>
       </c>
       <c r="E146">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146">
-        <f t="shared" si="6"/>
-        <v>4.1885597631469797E-2</v>
+        <f>AVERAGE(B146:D146)</f>
+        <v>3.48798078041948E-2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>4.2626927742158698E-2</v>
       </c>
       <c r="C147">
-        <v>7.8133950376573606E-3</v>
+        <v>1.84605278824767E-2</v>
       </c>
       <c r="D147">
-        <v>7.9853300000000002E-2</v>
+        <v>6.4949475000000007E-2</v>
       </c>
       <c r="E147">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F147">
-        <f t="shared" si="6"/>
-        <v>4.3833347518828683E-2</v>
+        <f>AVERAGE(B147:D147)</f>
+        <v>4.2012310208211799E-2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C148">
-        <v>2.1161369578839399E-2</v>
+        <v>3.8128371486133197E-2</v>
       </c>
       <c r="D148">
-        <v>6.9274050000000004E-2</v>
+        <v>4.7683332000000002E-2</v>
       </c>
       <c r="E148">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F148">
-        <f t="shared" si="6"/>
-        <v>4.5217709789419705E-2</v>
+        <f>AVERAGE(B148:D148)</f>
+        <v>4.2905851743066603E-2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>9.3818713694958603E-2</v>
+        <v>7.1709341685266603E-2</v>
       </c>
       <c r="D149">
-        <v>1.7240515000000001E-2</v>
+        <v>1.4177903E-2</v>
       </c>
       <c r="E149">
         <v>16</v>
       </c>
       <c r="F149">
-        <f t="shared" si="6"/>
-        <v>5.55296143474793E-2</v>
+        <f>AVERAGE(B149:D149)</f>
+        <v>4.2943622342633304E-2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150">
-        <v>0.12840062380869799</v>
+        <v>34</v>
       </c>
       <c r="C150">
-        <v>6.6115460398344206E-2</v>
+        <v>9.8303901820036999E-3</v>
       </c>
       <c r="D150">
-        <v>4.2479139999999999E-2</v>
+        <v>7.7805860000000004E-2</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F150">
-        <f t="shared" si="6"/>
-        <v>7.8998408069014064E-2</v>
+        <f>AVERAGE(B150:D150)</f>
+        <v>4.3818125091001851E-2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C151">
-        <v>0.136419750877495</v>
+        <v>0.12348080100566899</v>
       </c>
       <c r="D151">
-        <v>2.564806E-2</v>
+        <v>2.3336723E-2</v>
       </c>
       <c r="E151">
         <v>15</v>
       </c>
       <c r="F151">
-        <f t="shared" si="6"/>
-        <v>8.10339054387475E-2</v>
+        <f>AVERAGE(B151:D151)</f>
+        <v>7.3408762002834499E-2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>0.12840062380869799</v>
       </c>
       <c r="C152">
-        <v>8.3183326963026605E-2</v>
+        <v>5.4799805457207397E-2</v>
       </c>
       <c r="D152">
-        <v>0.14029920000000001</v>
+        <v>3.8193070000000003E-2</v>
       </c>
       <c r="E152">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
-        <v>0.11174126348151331</v>
+        <f>AVERAGE(B152:D152)</f>
+        <v>7.379783308863512E-2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153">
-        <v>0.156472015248656</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>0.18357137550584299</v>
+        <v>8.2790246161004902E-2</v>
       </c>
       <c r="D153">
-        <v>5.6073434999999998E-2</v>
+        <v>0.11695835</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F153">
-        <f t="shared" si="6"/>
-        <v>0.13203894191816631</v>
+        <f>AVERAGE(B153:D153)</f>
+        <v>9.9874298080502452E-2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B154">
+        <v>0.156472015248656</v>
+      </c>
+      <c r="C154">
+        <v>0.183630807497693</v>
+      </c>
+      <c r="D154">
+        <v>4.9278120000000002E-2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <f>AVERAGE(B154:D154)</f>
+        <v>0.12979364758211634</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155">
         <v>0.38632819268757901</v>
       </c>
-      <c r="C154">
-        <v>3.3954897132519403E-2</v>
-      </c>
-      <c r="D154">
-        <v>9.8957960000000001E-3</v>
-      </c>
-      <c r="E154">
+      <c r="C155">
+        <v>4.1778620251791299E-2</v>
+      </c>
+      <c r="D155">
+        <v>3.4850866000000001E-2</v>
+      </c>
+      <c r="E155">
         <v>1</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="6"/>
-        <v>0.14339296194003281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="F155">
+        <f>AVERAGE(B155:D155)</f>
+        <v>0.15431922631312342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>7</v>
       </c>
-      <c r="B156">
-        <f>SUM(B118:B154)</f>
-        <v>0.99999999999999933</v>
-      </c>
-      <c r="C156">
-        <f t="shared" ref="C156:D156" si="7">SUM(C118:C154)</f>
-        <v>0.99999999999999778</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="7"/>
-        <v>1.0000000390999999</v>
+      <c r="B157">
+        <f>SUM(B118:B155)</f>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="C157">
+        <f>SUM(C118:C155)</f>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="D157">
+        <f t="shared" ref="C157:D157" si="2">SUM(D118:D155)</f>
+        <v>0.99999994000000003</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A118:F154">
-    <sortCondition ref="F118:F154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortCondition ref="F2:F26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
